--- a/biology/Médecine/Communauté_hospitalière_de_territoire/Communauté_hospitalière_de_territoire.xlsx
+++ b/biology/Médecine/Communauté_hospitalière_de_territoire/Communauté_hospitalière_de_territoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Communaut%C3%A9_hospitali%C3%A8re_de_territoire</t>
+          <t>Communauté_hospitalière_de_territoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une communauté hospitalière de territoire (CHT) est un regroupement d'établissements hospitaliers en France, mis en place par la loi HPST du 21 juillet 2009.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Communaut%C3%A9_hospitali%C3%A8re_de_territoire</t>
+          <t>Communauté_hospitalière_de_territoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Exemples par région</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Auvergne-Rhône-Alpes :
-Communauté hospitalière de territoire Bresse-Haut Bugey, créée le 5 septembre 2013, regroupant les établissements de santé publics et privés de Bourg-en-Bresse, d'Hauteville-Lompnes et de Pont-de-Vaux[1].
+Communauté hospitalière de territoire Bresse-Haut Bugey, créée le 5 septembre 2013, regroupant les établissements de santé publics et privés de Bourg-en-Bresse, d'Hauteville-Lompnes et de Pont-de-Vaux.
 Communauté hospitalière de territoire Nord, intégrant le centre hospitalier de la Roche-sur-Foron.
 Hôpital Nord-Ouest dans le Rhône et l'Ain, regroupement des centres hospitaliers de Villefranche-sur-Saône, Tarare, Trévoux, Saint-Cyr-au-Mont-d'Or.
 Hauts-de-France :
@@ -522,7 +536,7 @@
 Normandie :
 Groupe hospitalier du Havre.
 Nouvelle-Aquitaine :
-Communauté hospitalière de territoire des Landes, créée le 9 février 2012 et regroupant les centres hospitaliers de Mont-de-Marsan et de Dax[2].</t>
+Communauté hospitalière de territoire des Landes, créée le 9 février 2012 et regroupant les centres hospitaliers de Mont-de-Marsan et de Dax.</t>
         </is>
       </c>
     </row>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Communaut%C3%A9_hospitali%C3%A8re_de_territoire</t>
+          <t>Communauté_hospitalière_de_territoire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Présentation du sujet sur le site du ministère de la santé.</t>
         </is>
